--- a/packages/gatchaman-xls/test/template.xlsx
+++ b/packages/gatchaman-xls/test/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/bitbucket.org/takanopontaro/xlsx-capture/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/github.com/takanopontaro/gatchaman/packages/gatchaman-xls/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -486,6 +486,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="431800"/>
+          <a:ext cx="698500" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -605,6 +665,66 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>&lt;%PLACEHOLDER-2%&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="3048000"/>
+          <a:ext cx="698500" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -730,6 +850,66 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>&lt;%PLACEHOLDER-2%&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413000" y="508000"/>
+          <a:ext cx="698500" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
